--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32918.43801629407</v>
+        <v>6550769.165242521</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32918.43801629407</v>
+        <v>6550769.165242521</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5984.43506560016</v>
+        <v>359952.619332983</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5984.43506560016</v>
+        <v>359952.619332983</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959929602.9205492</v>
+        <v>40100918.15438309</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9200.903527752382</v>
+        <v>1015050.745884831</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17025.94356106981</v>
+        <v>1802161.396092702</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24850.98359438722</v>
+        <v>2589272.046300575</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33016.53436600616</v>
+        <v>3353761.34330284</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40945.52213540956</v>
+        <v>4140904.362000324</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48874.34724908628</v>
+        <v>4928015.012208194</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56803.17236276295</v>
+        <v>5715125.662416063</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64731.99747643964</v>
+        <v>6502236.312623932</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72809.70121270031</v>
+        <v>7260705.287308288</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80878.11261763675</v>
+        <v>8030096.399729913</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88834.1840234038</v>
+        <v>8822629.062063761</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96763.0091370805</v>
+        <v>9609739.712271638</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104691.8342507572</v>
+        <v>10396850.36247952</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112611.1035592704</v>
+        <v>11183687.92532063</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120845.4704861951</v>
+        <v>11944611.6939618</v>
       </c>
     </row>
   </sheetData>
